--- a/xls/local.xlsx
+++ b/xls/local.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="general" sheetId="1" r:id="rId1"/>
     <sheet name="items" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="roles" sheetId="3" r:id="rId3"/>
+    <sheet name="jobs" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="283">
   <si>
     <t>bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -942,6 +943,203 @@
   </si>
   <si>
     <t>可吸收的傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scott</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史考特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scott</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eldon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hobart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gilly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gorham</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mordo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eldon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hobart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gilly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gorham</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mordo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍巴特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾爾登</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戈勒姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫爾多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉莉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寡言卻可靠的中年壯漢，鍛造技術一流，據說曾是王都兵工坊的首席</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矮個子滿臉皺紋的小老頭，總能拿出些「你不知道自己需要的東西」。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>負責村裡所有牲畜的宰殺與肉品加工。據說他手起刀落，比鐵匠還俐落……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖胖和氣的大叔，愛講笑話和八卦，是村裡的情報中心。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天從村外的田地或森林帶回最新鮮的農作物，推著小車叫賣，聲音又甜又響亮～</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒險者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊俠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓箭高手、森林獵人、野外生存達人，腳步輕盈如風，氣息比幽靈還難察覺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ranger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵匠</t>
+  </si>
+  <si>
+    <t>打造武器、防具與工具的鍛造高手。</t>
+  </si>
+  <si>
+    <t>經營旅館與酒館，消息靈通的熱情招待。</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Innkeeper</t>
+  </si>
+  <si>
+    <t>旅館老闆</t>
+  </si>
+  <si>
+    <t>Trader</t>
+  </si>
+  <si>
+    <t>Butcher</t>
+  </si>
+  <si>
+    <t>屠夫</t>
+  </si>
+  <si>
+    <t>處理牲畜肉品，刀法俐落，力氣驚人。</t>
+  </si>
+  <si>
+    <t>Merchant</t>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>des</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>innkeeper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>butcher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村內攤商，賣日用品或冒險裝備。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>來去自如的商旅，販售異地貨品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小販</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1020,7 +1218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1049,6 +1247,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1347,11 +1560,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1977,10 +2190,10 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2295,14 +2508,451 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="32.4">
+      <c r="A5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="32.4">
+      <c r="A6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="32.4">
+      <c r="A7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="32.4">
+      <c r="A8" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="32.4">
+      <c r="A9" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1"/>
+      <c r="D31" s="5"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="16" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="31.2">
+      <c r="A3" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1"/>
+      <c r="D31" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/xls/local.xlsx
+++ b/xls/local.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -958,62 +958,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eldon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hobart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gilly</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gorham</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mordo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eldon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hobart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gilly</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gorham</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mordo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>霍巴特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艾爾登</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戈勒姆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莫爾多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吉莉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1140,6 +1092,54 @@
   </si>
   <si>
     <t>小販</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>musk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬斯克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>川普</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Musk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xi Jinping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>習近平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬克宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>macron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2510,11 +2510,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2559,7 +2559,7 @@
         <v>232</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>233</v>
@@ -2570,72 +2570,72 @@
     </row>
     <row r="5" spans="1:5" ht="32.4">
       <c r="A5" s="1" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="32.4">
       <c r="A6" s="1" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="32.4">
       <c r="A7" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>248</v>
-      </c>
       <c r="C7" s="10" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="32.4">
       <c r="A8" s="2" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="32.4">
       <c r="A9" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>250</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2737,7 +2737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -2753,13 +2753,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2767,27 +2767,27 @@
         <v>76</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>76</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="31.2">
       <c r="A3" s="6" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2795,72 +2795,72 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="13" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="13" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/xls/local.xlsx
+++ b/xls/local.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="289">
   <si>
     <t>bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -958,18 +958,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gilly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gilly</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吉莉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>寡言卻可靠的中年壯漢，鍛造技術一流，據說曾是王都兵工坊的首席</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1140,6 +1132,38 @@
   </si>
   <si>
     <t>xi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>karen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凱倫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_door</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close_door</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打開</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關閉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1558,13 +1582,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
+      <selection pane="bottomRight" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -2079,102 +2103,124 @@
         <v>195</v>
       </c>
     </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
     <row r="48" spans="1:4">
       <c r="A48" s="6" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>197</v>
+        <v>286</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>205</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="6" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>225</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B58" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D58" s="8" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="6" t="s">
+    <row r="59" spans="1:4">
+      <c r="A59" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B59" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D59" s="8" t="s">
         <v>222</v>
       </c>
     </row>
@@ -2510,11 +2556,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2559,7 +2605,7 @@
         <v>232</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>233</v>
@@ -2570,72 +2616,72 @@
     </row>
     <row r="5" spans="1:5" ht="32.4">
       <c r="A5" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="32.4">
       <c r="A6" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="32.4">
       <c r="A7" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="32.4">
       <c r="A8" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="32.4">
       <c r="A9" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2753,13 +2799,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>258</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2767,27 +2813,27 @@
         <v>76</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>76</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="31.2">
       <c r="A3" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>244</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2795,72 +2841,72 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>248</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>249</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>268</v>
-      </c>
       <c r="D9" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/xls/local.xlsx
+++ b/xls/local.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="295">
   <si>
     <t>bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1164,6 +1164,30 @@
   </si>
   <si>
     <t>Close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>製作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Make</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1582,13 +1606,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G44" sqref="G44"/>
+      <selection pane="bottomRight" activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -2125,102 +2149,124 @@
         <v>288</v>
       </c>
     </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
     <row r="50" spans="1:4">
       <c r="A50" s="6" t="s">
-        <v>202</v>
+        <v>291</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>197</v>
+        <v>292</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>205</v>
+        <v>294</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="6" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>225</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B60" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D60" s="8" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="6" t="s">
+    <row r="61" spans="1:4">
+      <c r="A61" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B61" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D61" s="8" t="s">
         <v>222</v>
       </c>
     </row>

--- a/xls/local.xlsx
+++ b/xls/local.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="301">
   <si>
     <t>bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1188,6 +1188,30 @@
   </si>
   <si>
     <t>Setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1606,13 +1630,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K48" sqref="K48"/>
+      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -2162,111 +2186,133 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="6" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>294</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="6" t="s">
-        <v>202</v>
+        <v>291</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>197</v>
+        <v>292</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>205</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="6" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>225</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B62" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D62" s="8" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="6" t="s">
+    <row r="63" spans="1:4">
+      <c r="A63" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B63" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D63" s="8" t="s">
         <v>222</v>
       </c>
     </row>

--- a/xls/local.xlsx
+++ b/xls/local.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -946,18 +946,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>scott</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>史考特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scott</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gilly</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1212,6 +1200,18 @@
   </si>
   <si>
     <t>Rest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>維克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1632,7 +1632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2153,68 +2153,68 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>295</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>291</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2648,11 +2648,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2691,16 +2691,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>298</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>232</v>
+        <v>299</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>233</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2708,72 +2708,72 @@
     </row>
     <row r="5" spans="1:5" ht="32.4">
       <c r="A5" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="32.4">
       <c r="A6" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="32.4">
       <c r="A7" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="32.4">
       <c r="A8" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="32.4">
       <c r="A9" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2891,13 +2891,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2905,27 +2905,27 @@
         <v>76</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>76</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="31.2">
       <c r="A3" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>241</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2933,72 +2933,72 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>245</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>265</v>
-      </c>
       <c r="D7" s="14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>267</v>
-      </c>
       <c r="C9" s="12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/xls/local.xlsx
+++ b/xls/local.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="305">
   <si>
     <t>bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1212,6 +1212,22 @@
   </si>
   <si>
     <t>Wick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melanie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅蘭妮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melanie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漂亮大方的女士，跟川普共同經營一家旅館</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2652,7 +2668,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2776,9 +2792,19 @@
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
-      <c r="D10" s="5"/>
+    <row r="10" spans="1:5" ht="32.4">
+      <c r="A10" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2"/>
@@ -2876,7 +2902,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>

--- a/xls/local.xlsx
+++ b/xls/local.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="302">
   <si>
     <t>bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,106 +123,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鹽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生肉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>熟肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生魚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹽烤魚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>皮衣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>靴子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>項鍊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>戒子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火把</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水壺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>普通刀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鐵劍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ordinary knife</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Iron Sword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鋼劍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Steel Sword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Salt-baked fish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Raw fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cooked meat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Raw meat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>草帽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>草衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>皮帽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,38 +155,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Boots</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Necklace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ring</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Torch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bottle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Salt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Grass Clothes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Linen Clothes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,10 +196,6 @@
   </si>
   <si>
     <t>鐵礦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Iron ore</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1228,6 +1124,98 @@
   </si>
   <si>
     <t>漂亮大方的女士，跟川普共同經營一家旅館</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron ore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Salt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raw meat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cooked meat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raw fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ordinary knife</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron Sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steel Sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grass Clothes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Torch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bottle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生魚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹽烤魚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靴子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水壺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1667,669 +1655,669 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" s="7" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="6" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="6" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="6" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="6" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="6" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="6" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="31.2">
       <c r="A24" s="6" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="6" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="6" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="31.2">
       <c r="A27" s="6" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="31.2">
       <c r="A28" s="6" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="6" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="6" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="6" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="6" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="6" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="6" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="6" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="6" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="6" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="6" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="6" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="6" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="6" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="6" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="6" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="6" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="6" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="6" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="6" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="6" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="6" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="6" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="6" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="6" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="6" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="6" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="6" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="6" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="6" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="6" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="6" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="6" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2343,11 +2331,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2386,13 +2374,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>70</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2400,10 +2388,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>279</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>58</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2411,10 +2399,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2425,10 +2413,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>48</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2436,10 +2424,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>292</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>47</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2447,10 +2435,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>293</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2458,10 +2446,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2473,10 +2461,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>41</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2484,10 +2472,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2495,10 +2483,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>44</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2510,10 +2498,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>49</v>
+        <v>296</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2521,10 +2509,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2532,10 +2520,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2547,10 +2535,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>297</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>60</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2558,10 +2546,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2569,10 +2557,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2584,10 +2572,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2595,10 +2583,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>34</v>
+        <v>298</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>53</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2610,10 +2598,10 @@
         <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2621,10 +2609,10 @@
         <v>23</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>36</v>
+        <v>299</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2636,10 +2624,10 @@
         <v>24</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>37</v>
+        <v>300</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>56</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2647,10 +2635,10 @@
         <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>57</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -2664,8 +2652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
@@ -2707,16 +2695,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2724,86 +2712,86 @@
     </row>
     <row r="5" spans="1:5" ht="32.4">
       <c r="A5" s="1" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="32.4">
       <c r="A6" s="1" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="32.4">
       <c r="A7" s="2" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="32.4">
       <c r="A8" s="2" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="32.4">
       <c r="A9" s="2" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="32.4">
       <c r="A10" s="2" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2917,41 +2905,41 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" s="11" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="31.2">
       <c r="A3" s="6" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2959,72 +2947,72 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="13" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="13" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/xls/local.xlsx
+++ b/xls/local.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
     <sheet name="items" sheetId="2" r:id="rId2"/>
     <sheet name="roles" sheetId="3" r:id="rId3"/>
     <sheet name="jobs" sheetId="4" r:id="rId4"/>
+    <sheet name="stat" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="357">
   <si>
     <t>bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -503,19 +504,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hunger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>thirst</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>口渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thirst</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1216,6 +1209,234 @@
   </si>
   <si>
     <t>水壺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>con</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>體質</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dodge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critDmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>閃避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴傷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰凍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>combat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戰鬥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰凍抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中毒抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phy_res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire_res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice_res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poison_res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴擊率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴擊傷害倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>閃避率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理防禦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持續傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持續回復</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合回復 [color=red]{0}[/color] 生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合扣 [color=green]{0}[/color] 生命</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1280,12 +1501,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1294,7 +1524,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1339,6 +1569,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1634,13 +1882,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1906,7 +2154,7 @@
         <v>112</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>113</v>
@@ -1920,7 +2168,7 @@
         <v>114</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>115</v>
@@ -1934,49 +2182,43 @@
         <v>117</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="31.2">
-      <c r="A27" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="31.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="6" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1984,340 +2226,318 @@
         <v>128</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="6" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="6" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="6" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>165</v>
+        <v>254</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="6" t="s">
-        <v>167</v>
+        <v>253</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>168</v>
+        <v>255</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>169</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="6" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="6" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="6" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="6" t="s">
-        <v>262</v>
+        <v>174</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>265</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="6" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="6" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="6" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B63" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2331,7 +2551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2380,7 +2600,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2388,10 +2608,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2416,7 +2636,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2424,10 +2644,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2435,10 +2655,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2446,7 +2666,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>31</v>
@@ -2464,7 +2684,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2472,10 +2692,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2486,7 +2706,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2498,7 +2718,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>40</v>
@@ -2535,10 +2755,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2583,10 +2803,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2609,7 +2829,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>34</v>
@@ -2624,10 +2844,10 @@
         <v>24</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2635,10 +2855,10 @@
         <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -2695,16 +2915,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>272</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2712,86 +2932,86 @@
     </row>
     <row r="5" spans="1:5" ht="32.4">
       <c r="A5" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="32.4">
       <c r="A6" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="32.4">
       <c r="A7" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="32.4">
       <c r="A8" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="32.4">
       <c r="A9" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="32.4">
       <c r="A10" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2890,7 +3110,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -2905,13 +3125,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>227</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2919,27 +3139,27 @@
         <v>50</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="31.2">
       <c r="A3" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2947,72 +3167,72 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>217</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>218</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>237</v>
-      </c>
       <c r="D9" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3107,4 +3327,319 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="14" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="40.5546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.2" thickTop="1">
+      <c r="A3" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="31.2">
+      <c r="A28" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="46.8">
+      <c r="A29" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="46.8">
+      <c r="A30" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="C46" s="9"/>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="9"/>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/xls/local.xlsx
+++ b/xls/local.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="360">
   <si>
     <t>bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1437,6 +1437,18 @@
   </si>
   <si>
     <t>每回合扣 [color=green]{0}[/color] 生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>範圍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻擊半徑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3331,10 +3343,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -3439,203 +3451,214 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>347</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B21" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="6" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="31.2">
-      <c r="A28" s="6" t="s">
+    <row r="29" spans="1:3" ht="31.2">
+      <c r="A29" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B29" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="46.8">
-      <c r="A29" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="46.8">
       <c r="A30" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="46.8">
+      <c r="A31" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B31" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B34" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="C46" s="9"/>
-    </row>
-    <row r="49" spans="3:3">
-      <c r="C49" s="9"/>
+    <row r="47" spans="1:3">
+      <c r="C47" s="9"/>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" s="9"/>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/xls/local.xlsx
+++ b/xls/local.xlsx
@@ -12,13 +12,15 @@
     <sheet name="roles" sheetId="3" r:id="rId3"/>
     <sheet name="jobs" sheetId="4" r:id="rId4"/>
     <sheet name="stat" sheetId="5" r:id="rId5"/>
+    <sheet name="tag" sheetId="6" r:id="rId6"/>
+    <sheet name="other" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="386">
   <si>
     <t>bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1432,14 +1434,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每回合回復 [color=red]{0}[/color] 生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合扣 [color=green]{0}[/color] 生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1449,6 +1443,118 @@
   </si>
   <si>
     <t>攻擊半徑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bleed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治療</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>強化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無視防禦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_hot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">觸發{#tag}，每回合增加{#value}點生命，持續{#dur}回合 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">觸發{#tag}，每回合受到{#value}點{#elm}傷害，持續{#dur}回合 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">觸發{#tag}，持續{#dur}回合 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">每回合增加{#value}點生命 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合受到{#value}點{#elm}傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴擊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失誤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1513,7 +1619,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1530,13 +1636,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1599,6 +1735,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1897,7 +2042,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
@@ -2564,7 +2709,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
@@ -2884,7 +3029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3121,7 +3266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
@@ -3345,15 +3490,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="14" style="6" customWidth="1"/>
     <col min="2" max="2" width="13.21875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="40.5546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="92" style="7" customWidth="1"/>
     <col min="4" max="4" width="23.21875" style="8" customWidth="1"/>
     <col min="5" max="5" width="12.21875" style="8" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="6"/>
@@ -3391,50 +3536,59 @@
       <c r="A3" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="21" t="s">
         <v>304</v>
       </c>
+      <c r="C3" s="21"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="22" t="s">
         <v>308</v>
       </c>
+      <c r="C4" s="22"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="22" t="s">
         <v>309</v>
       </c>
+      <c r="C5" s="22"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="22" t="s">
         <v>310</v>
       </c>
+      <c r="C6" s="22"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="22" t="s">
         <v>327</v>
       </c>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="22" t="s">
         <v>350</v>
       </c>
     </row>
@@ -3442,32 +3596,32 @@
       <c r="A10" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="22" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>357</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="22" t="s">
         <v>315</v>
       </c>
     </row>
@@ -3475,10 +3629,10 @@
       <c r="A13" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="22" t="s">
         <v>348</v>
       </c>
     </row>
@@ -3486,10 +3640,10 @@
       <c r="A14" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="22" t="s">
         <v>345</v>
       </c>
     </row>
@@ -3497,158 +3651,248 @@
       <c r="A15" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="22" t="s">
         <v>347</v>
       </c>
     </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>372</v>
+      </c>
+    </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>329</v>
-      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>330</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="C18" s="22"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B22" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C22" s="22" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>339</v>
-      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>323</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C24" s="22"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>324</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="C25" s="22"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>325</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="C26" s="22"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="C27" s="22"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B28" s="22" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="31.2">
-      <c r="A29" s="6" t="s">
+      <c r="C28" s="22"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+    </row>
+    <row r="30" spans="1:3" ht="31.2">
+      <c r="A30" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B30" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C30" s="23" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="46.8">
-      <c r="A30" s="6" t="s">
+    <row r="31" spans="1:3" ht="31.2">
+      <c r="A31" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B31" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C31" s="23" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="46.8">
-      <c r="A31" s="6" t="s">
+    <row r="32" spans="1:3" ht="31.2">
+      <c r="A32" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B32" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C32" s="23" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>355</v>
-      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B35" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>356</v>
+      <c r="C35" s="23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3659,6 +3903,156 @@
     </row>
     <row r="51" spans="3:3">
       <c r="C51" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="3" max="3" width="28.5546875" customWidth="1"/>
+    <col min="5" max="5" width="38.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.8" thickBot="1">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.8" thickTop="1"/>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D9:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="6"/>
+    <col min="3" max="3" width="28.5546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="6"/>
+    <col min="5" max="5" width="38.88671875" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.2" thickTop="1"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/xls/local.xlsx
+++ b/xls/local.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="393">
   <si>
     <t>bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1555,6 +1555,34 @@
   </si>
   <si>
     <t>失誤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>類型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近戰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capacity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1672,7 +1700,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1744,6 +1772,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2039,13 +2070,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -2283,417 +2314,428 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="6" t="s">
-        <v>105</v>
+        <v>390</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>106</v>
+        <v>391</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>107</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D24" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.2">
-      <c r="A24" s="6" t="s">
+    <row r="25" spans="1:4" ht="31.2">
+      <c r="A25" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D27" s="8" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="6" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="6" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="6" t="s">
-        <v>252</v>
+        <v>165</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>254</v>
+        <v>166</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>256</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="6" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="6" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B51" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D51" s="8" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B59" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D59" s="8" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B62" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D62" s="8" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3490,8 +3532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -3878,6 +3920,7 @@
       <c r="B40" s="7" t="s">
         <v>376</v>
       </c>
+      <c r="C40" s="24"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="6" t="s">
@@ -3986,10 +4029,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D9:D10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -4054,6 +4097,22 @@
         <v>114</v>
       </c>
     </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xls/local.xlsx
+++ b/xls/local.xlsx
@@ -3532,7 +3532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>

--- a/xls/local.xlsx
+++ b/xls/local.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="394">
   <si>
     <t>bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1530,10 +1530,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">觸發{#tag}，持續{#dur}回合 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">每回合增加{#value}點生命 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1583,6 +1579,14 @@
   </si>
   <si>
     <t>Capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">觸發{#tag}，{#eff}，持續{#dur}回合 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{#eff}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1700,7 +1704,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1772,9 +1776,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2314,13 +2315,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>391</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3533,7 +3534,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -3888,7 +3889,7 @@
         <v>367</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3899,7 +3900,7 @@
         <v>354</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3910,7 +3911,7 @@
         <v>353</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3920,22 +3921,24 @@
       <c r="B40" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="C40" s="24"/>
+      <c r="C40" s="7" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4099,18 +4102,18 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/xls/local.xlsx
+++ b/xls/local.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="404">
   <si>
     <t>bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1258,22 +1258,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dodge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>critRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>critDmg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>命中率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1587,6 +1571,62 @@
   </si>
   <si>
     <t>{#eff}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eva</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸運</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影響近戰攻擊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影響閃避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影響生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影響判定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影響法術效力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranged</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遠距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戰鬥類型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2074,7 +2114,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
@@ -2315,13 +2355,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="6" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2752,10 +2792,10 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3309,7 +3349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
@@ -3531,10 +3571,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -3582,7 +3622,9 @@
       <c r="B3" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="21" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
@@ -3591,7 +3633,9 @@
       <c r="B4" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="22" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
@@ -3600,7 +3644,9 @@
       <c r="B5" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="22" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
@@ -3609,346 +3655,359 @@
       <c r="B6" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="22" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="A7" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>327</v>
-      </c>
+      <c r="B8" s="22"/>
       <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>350</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>356</v>
+        <v>117</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>312</v>
+        <v>390</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>313</v>
+        <v>391</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>314</v>
+        <v>392</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="A17" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>329</v>
-      </c>
+      <c r="B18" s="22"/>
       <c r="C18" s="22"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>330</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="6" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C22" s="22" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
+      <c r="B23" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>339</v>
-      </c>
+      <c r="B24" s="22"/>
       <c r="C24" s="22"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="C25" s="22"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C26" s="22"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C27" s="22"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="C28" s="22"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="B29" s="22"/>
+      <c r="A29" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>334</v>
+      </c>
       <c r="C29" s="22"/>
     </row>
-    <row r="30" spans="1:3" ht="31.2">
-      <c r="A30" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>198</v>
-      </c>
+    <row r="30" spans="1:3">
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:3" ht="31.2">
       <c r="A31" s="6" t="s">
-        <v>119</v>
+        <v>302</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="31.2">
       <c r="A32" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="31.2">
+      <c r="A33" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B33" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C33" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-    </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>354</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>377</v>
-      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="6" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="6" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>354</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>379</v>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="6" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B40" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="C40" s="23" t="s">
         <v>376</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>382</v>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="6" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="C47" s="9"/>
-    </row>
-    <row r="50" spans="3:3">
-      <c r="C50" s="9"/>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="C48" s="9"/>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" s="9"/>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4002,26 +4061,26 @@
     <row r="3" spans="1:5" ht="16.8" thickTop="1"/>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -4032,10 +4091,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -4078,18 +4137,18 @@
     <row r="3" spans="1:5" ht="16.2" thickTop="1"/>
     <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4102,18 +4161,29 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>386</v>
+        <v>382</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>388</v>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>

--- a/xls/local.xlsx
+++ b/xls/local.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="407">
   <si>
     <t>bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1627,6 +1627,18 @@
   </si>
   <si>
     <t>戰鬥類型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2111,13 +2123,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -2212,571 +2224,582 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>67</v>
+        <v>406</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>68</v>
+        <v>404</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>69</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>98</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="6" t="s">
-        <v>385</v>
+        <v>102</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>386</v>
+        <v>103</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>387</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="6" t="s">
-        <v>105</v>
+        <v>385</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>106</v>
+        <v>386</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>107</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.2">
-      <c r="A25" s="6" t="s">
+    <row r="26" spans="1:4" ht="31.2">
+      <c r="A26" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D26" s="8" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B28" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D28" s="8" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="6" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="6" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="6" t="s">
-        <v>252</v>
+        <v>165</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>254</v>
+        <v>166</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>256</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="6" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="6" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B52" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D52" s="8" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B60" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D60" s="8" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B63" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D63" s="8" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4093,7 +4116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/xls/local.xlsx
+++ b/xls/local.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="stat" sheetId="5" r:id="rId5"/>
     <sheet name="tag" sheetId="6" r:id="rId6"/>
     <sheet name="other" sheetId="7" r:id="rId7"/>
+    <sheet name="quest" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="419">
   <si>
     <t>bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1639,6 +1640,54 @@
   </si>
   <si>
     <t>ability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>獎勵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金幣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殺死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conditions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>條件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盜賊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任務</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2125,11 +2174,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -2815,7 +2864,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
@@ -3139,7 +3188,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3282,7 +3331,12 @@
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>416</v>
+      </c>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:5">
@@ -4117,7 +4171,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -4214,4 +4268,97 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="6"/>
+    <col min="3" max="3" width="28.5546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="6"/>
+    <col min="5" max="5" width="38.88671875" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.2" thickTop="1"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>